--- a/data/trans_orig/IP05A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A04-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6571E0C-7D0F-4D18-8EE6-6D8DF9F75F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4783D790-71C5-4EEB-B79E-97760D0988A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{305D84B9-B1FA-47B3-9AE1-9C4E1B24CE25}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F395D0A-DA56-419D-9518-561CD9620FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="491">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 98,95%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>87,69%</t>
   </si>
   <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>87,72%</t>
   </si>
   <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,1393 +107,1411 @@
     <t>11,16%</t>
   </si>
   <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,64%)</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2015 (Tasa respuesta: 99,44%)</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,64%)</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>1,9%</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4804A19B-3A5B-43C2-9092-7C4DB56BD722}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565F7E81-3BE6-46DA-B43B-573CB24E3E0B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2701,10 +2719,10 @@
         <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2713,13 +2731,13 @@
         <v>16534</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -2728,13 +2746,13 @@
         <v>29804</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2767,13 @@
         <v>5300</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -2764,13 +2782,13 @@
         <v>3045</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -2779,13 +2797,13 @@
         <v>8345</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2871,13 @@
         <v>638090</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>883</v>
@@ -2868,13 +2886,13 @@
         <v>589695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>1842</v>
@@ -2883,13 +2901,13 @@
         <v>1227786</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2922,13 @@
         <v>63180</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -2919,13 +2937,13 @@
         <v>71167</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>201</v>
@@ -2934,13 +2952,13 @@
         <v>134347</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2973,13 @@
         <v>14646</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -2970,13 +2988,13 @@
         <v>11445</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -2985,13 +3003,13 @@
         <v>26091</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,7 +3065,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3067,7 +3085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF06691-E9CD-4F08-8F6E-9F64C468CB2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064B74C3-05E2-4335-B505-024665753A33}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3084,7 +3102,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3191,13 +3209,13 @@
         <v>133428</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -3206,13 +3224,13 @@
         <v>136504</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>393</v>
@@ -3221,13 +3239,13 @@
         <v>269932</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3260,13 @@
         <v>8463</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -3257,13 +3275,13 @@
         <v>7497</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -3272,13 +3290,13 @@
         <v>15960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3311,13 @@
         <v>2785</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -3308,13 +3326,13 @@
         <v>2026</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -3323,13 +3341,13 @@
         <v>4811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3415,13 @@
         <v>246045</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>313</v>
@@ -3412,13 +3430,13 @@
         <v>217871</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>655</v>
@@ -3427,13 +3445,13 @@
         <v>463916</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3466,13 @@
         <v>19438</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -3463,13 +3481,13 @@
         <v>13678</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -3478,13 +3496,13 @@
         <v>33116</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3517,13 @@
         <v>3508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3514,13 +3532,13 @@
         <v>4221</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3529,13 +3547,13 @@
         <v>7729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3621,13 @@
         <v>145175</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H12" s="7">
         <v>205</v>
@@ -3618,13 +3636,13 @@
         <v>144671</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M12" s="7">
         <v>414</v>
@@ -3633,13 +3651,13 @@
         <v>289846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3672,13 @@
         <v>8645</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3669,13 +3687,13 @@
         <v>10119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3684,13 +3702,13 @@
         <v>18765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3723,13 @@
         <v>3749</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3720,13 +3738,13 @@
         <v>2253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -3735,13 +3753,13 @@
         <v>6003</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3827,13 @@
         <v>161009</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>226</v>
@@ -3824,13 +3842,13 @@
         <v>158898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>463</v>
@@ -3839,13 +3857,13 @@
         <v>319908</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,13 +3878,13 @@
         <v>16297</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -3875,13 +3893,13 @@
         <v>6634</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -3890,13 +3908,13 @@
         <v>22931</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3929,13 @@
         <v>1962</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -3926,13 +3944,13 @@
         <v>3630</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -3941,13 +3959,13 @@
         <v>5592</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +4033,13 @@
         <v>685657</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>948</v>
@@ -4030,13 +4048,13 @@
         <v>657944</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M20" s="7">
         <v>1925</v>
@@ -4045,13 +4063,13 @@
         <v>1343601</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4084,13 @@
         <v>52844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H21" s="7">
         <v>55</v>
@@ -4081,13 +4099,13 @@
         <v>37928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M21" s="7">
         <v>131</v>
@@ -4096,13 +4114,13 @@
         <v>90771</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4135,13 @@
         <v>12004</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -4132,13 +4150,13 @@
         <v>12130</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -4147,13 +4165,13 @@
         <v>24134</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,7 +4227,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4229,7 +4247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219009B6-13A5-4422-B94A-2DC034257F32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADC5D0-441C-4AC4-8F48-C598DA2FF4B4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4246,7 +4264,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4353,13 +4371,13 @@
         <v>111425</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7">
         <v>189</v>
@@ -4368,13 +4386,13 @@
         <v>118268</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>356</v>
@@ -4383,13 +4401,13 @@
         <v>229692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4422,13 @@
         <v>10135</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4419,13 +4437,13 @@
         <v>8486</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -4434,13 +4452,13 @@
         <v>18621</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4473,13 @@
         <v>2604</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>289</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>161</v>
+        <v>295</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4470,13 +4488,13 @@
         <v>4365</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>291</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -4485,13 +4503,13 @@
         <v>6969</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4577,13 @@
         <v>232542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
         <v>294</v>
@@ -4574,13 +4592,13 @@
         <v>187026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
         <v>635</v>
@@ -4589,13 +4607,13 @@
         <v>419568</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4628,13 @@
         <v>16622</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -4625,13 +4643,13 @@
         <v>16342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>311</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M9" s="7">
         <v>51</v>
@@ -4640,13 +4658,13 @@
         <v>32964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4679,13 @@
         <v>8898</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4676,13 +4694,13 @@
         <v>5908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4691,13 +4709,13 @@
         <v>14805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4783,13 @@
         <v>165838</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="H12" s="7">
         <v>247</v>
@@ -4780,13 +4798,13 @@
         <v>172176</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="M12" s="7">
         <v>478</v>
@@ -4795,13 +4813,13 @@
         <v>338014</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4834,13 @@
         <v>13390</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4831,13 +4849,13 @@
         <v>9541</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -4846,13 +4864,13 @@
         <v>22931</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4885,13 @@
         <v>8581</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -4882,13 +4900,13 @@
         <v>6014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -4897,13 +4915,13 @@
         <v>14595</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4989,13 @@
         <v>156490</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>218</v>
@@ -4986,13 +5004,13 @@
         <v>155491</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>430</v>
@@ -5001,13 +5019,13 @@
         <v>311981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5040,13 @@
         <v>12514</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -5037,13 +5055,13 @@
         <v>11411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -5052,13 +5070,13 @@
         <v>23925</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5091,13 @@
         <v>2728</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>357</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>197</v>
+        <v>365</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -5088,13 +5106,13 @@
         <v>4569</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>359</v>
+        <v>63</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5103,13 +5121,13 @@
         <v>7297</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5195,13 @@
         <v>666294</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>948</v>
@@ -5192,13 +5210,13 @@
         <v>632960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>368</v>
+        <v>152</v>
       </c>
       <c r="M20" s="7">
         <v>1899</v>
@@ -5207,13 +5225,13 @@
         <v>1299254</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>375</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5246,13 @@
         <v>52661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="H21" s="7">
         <v>72</v>
@@ -5243,13 +5261,13 @@
         <v>45780</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M21" s="7">
         <v>148</v>
@@ -5258,13 +5276,13 @@
         <v>98441</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>25</v>
+        <v>384</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5297,13 @@
         <v>22810</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -5294,13 +5312,13 @@
         <v>20856</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -5309,13 +5327,13 @@
         <v>43666</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>189</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,7 +5389,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5391,7 +5409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9721453-ED70-4F78-AF2C-38A74036B77B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A527D4F-0CBA-47EE-96CE-7FDC16DEF13C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5408,7 +5426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5515,13 +5533,13 @@
         <v>54119</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="H4" s="7">
         <v>103</v>
@@ -5530,13 +5548,13 @@
         <v>54436</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="M4" s="7">
         <v>211</v>
@@ -5545,13 +5563,13 @@
         <v>108554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5584,13 @@
         <v>3028</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5581,13 +5599,13 @@
         <v>2112</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -5596,13 +5614,13 @@
         <v>5140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>59</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5635,13 @@
         <v>1356</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>403</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5632,13 +5650,13 @@
         <v>821</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>404</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -5647,13 +5665,13 @@
         <v>2177</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5739,13 @@
         <v>165179</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="H8" s="7">
         <v>244</v>
@@ -5736,13 +5754,13 @@
         <v>150295</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="M8" s="7">
         <v>506</v>
@@ -5751,13 +5769,13 @@
         <v>315475</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>413</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5790,13 @@
         <v>7367</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>424</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -5787,13 +5805,13 @@
         <v>4088</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>417</v>
+        <v>165</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>419</v>
+        <v>221</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -5802,13 +5820,13 @@
         <v>11454</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>421</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5841,13 @@
         <v>1849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>423</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5838,13 +5856,13 @@
         <v>2786</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5853,13 +5871,13 @@
         <v>4635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>426</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5945,13 @@
         <v>194461</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H12" s="7">
         <v>222</v>
@@ -5942,13 +5960,13 @@
         <v>168818</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M12" s="7">
         <v>455</v>
@@ -5957,13 +5975,13 @@
         <v>363279</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5996,13 @@
         <v>5842</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>438</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>436</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5993,13 +6011,13 @@
         <v>6724</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -6008,13 +6026,13 @@
         <v>12567</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6047,13 @@
         <v>1274</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -6044,13 +6062,13 @@
         <v>1403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -6059,13 +6077,13 @@
         <v>2677</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>448</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6151,13 @@
         <v>276050</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H16" s="7">
         <v>326</v>
@@ -6148,13 +6166,13 @@
         <v>249386</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>652</v>
@@ -6163,10 +6181,10 @@
         <v>525436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>454</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>455</v>
@@ -6187,10 +6205,10 @@
         <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>268</v>
+        <v>457</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>458</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -6199,13 +6217,13 @@
         <v>6648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>334</v>
+        <v>459</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -6214,13 +6232,13 @@
         <v>14757</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>458</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6253,13 @@
         <v>4740</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>215</v>
+        <v>464</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -6250,13 +6268,13 @@
         <v>3389</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>466</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -6265,13 +6283,13 @@
         <v>8128</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>200</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6357,13 @@
         <v>689807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H20" s="7">
         <v>895</v>
@@ -6354,13 +6372,13 @@
         <v>622936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M20" s="7">
         <v>1824</v>
@@ -6369,13 +6387,13 @@
         <v>1312743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6408,13 @@
         <v>24345</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>475</v>
+        <v>349</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -6405,13 +6423,13 @@
         <v>19573</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="M21" s="7">
         <v>65</v>
@@ -6420,13 +6438,13 @@
         <v>43918</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>89</v>
+        <v>346</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>64</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6459,13 @@
         <v>9218</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6456,13 +6474,13 @@
         <v>8398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>457</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -6471,13 +6489,13 @@
         <v>17617</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>237</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,7 +6551,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP05A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4783D790-71C5-4EEB-B79E-97760D0988A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C247C772-8E8C-4E99-BB11-F6F9BF8F42B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F395D0A-DA56-419D-9518-561CD9620FB4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3EFC43FF-F8EC-4C09-BA5D-A3BEFABFE2F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="494">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 98,95%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1444 +74,1453 @@
     <t>Nada</t>
   </si>
   <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>87,72%</t>
   </si>
   <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>Algo</t>
   </si>
   <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,64%)</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,44%)</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,64%)</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565F7E81-3BE6-46DA-B43B-573CB24E3E0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9296C5-07FE-4FF5-9BFD-2E00B79453A7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2041,10 +2050,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D4" s="7">
-        <v>104730</v>
+        <v>91828</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2056,10 +2065,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I4" s="7">
-        <v>91828</v>
+        <v>104730</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2092,10 +2101,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>13330</v>
+        <v>11414</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2107,10 +2116,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>11414</v>
+        <v>13330</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2146,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1376</v>
+        <v>1392</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2161,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1392</v>
+        <v>1376</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2194,25 +2203,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>160</v>
+      </c>
+      <c r="D7" s="7">
+        <v>104634</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7">
         <v>179</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>119435</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="7">
-        <v>160</v>
-      </c>
-      <c r="I7" s="7">
-        <v>104634</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -2247,10 +2256,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D8" s="7">
-        <v>223433</v>
+        <v>215762</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2262,10 +2271,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="I8" s="7">
-        <v>215762</v>
+        <v>223433</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2298,10 +2307,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
-        <v>21361</v>
+        <v>26860</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -2313,10 +2322,10 @@
         <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I9" s="7">
-        <v>26860</v>
+        <v>21361</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -2352,7 +2361,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>6191</v>
+        <v>5585</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -2367,7 +2376,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>5585</v>
+        <v>6191</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -2400,25 +2409,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>372</v>
+      </c>
+      <c r="D11" s="7">
+        <v>248207</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7">
         <v>378</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>250985</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="7">
-        <v>372</v>
-      </c>
-      <c r="I11" s="7">
-        <v>248207</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -2453,10 +2462,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D12" s="7">
-        <v>123821</v>
+        <v>108379</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>69</v>
@@ -2468,10 +2477,10 @@
         <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="I12" s="7">
-        <v>108379</v>
+        <v>123821</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>72</v>
@@ -2504,10 +2513,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>15218</v>
+        <v>16360</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>78</v>
@@ -2519,10 +2528,10 @@
         <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>16360</v>
+        <v>15218</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>81</v>
@@ -2555,31 +2564,31 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1780</v>
+        <v>1423</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1780</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1423</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>91</v>
@@ -2591,13 +2600,13 @@
         <v>3203</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,25 +2615,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>189</v>
+      </c>
+      <c r="D15" s="7">
+        <v>126162</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="7">
         <v>211</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>140820</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="7">
-        <v>189</v>
-      </c>
-      <c r="I15" s="7">
-        <v>126162</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -2653,40 +2662,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>256</v>
+      </c>
+      <c r="D16" s="7">
+        <v>173725</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="7">
         <v>280</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>186105</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="7">
-        <v>256</v>
-      </c>
-      <c r="I16" s="7">
-        <v>173725</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>536</v>
@@ -2695,13 +2704,13 @@
         <v>359830</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,34 +2719,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16534</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="7">
         <v>20</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>13270</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H17" s="7">
-        <v>25</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16534</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -2746,13 +2755,13 @@
         <v>29804</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,34 +2770,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3045</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>5300</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3045</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -2797,13 +2806,13 @@
         <v>8345</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,25 +2821,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>285</v>
+      </c>
+      <c r="D19" s="7">
+        <v>193304</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7">
         <v>308</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>204675</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7">
-        <v>285</v>
-      </c>
-      <c r="I19" s="7">
-        <v>193304</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -2865,49 +2874,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>883</v>
+      </c>
+      <c r="D20" s="7">
+        <v>589695</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="7">
         <v>959</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>638090</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="7">
-        <v>883</v>
-      </c>
-      <c r="I20" s="7">
-        <v>589695</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
         <v>1842</v>
       </c>
       <c r="N20" s="7">
-        <v>1227786</v>
+        <v>1227785</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,49 +2925,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>106</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71167</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="7">
         <v>95</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>63180</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="7">
-        <v>106</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71167</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>201</v>
       </c>
       <c r="N21" s="7">
-        <v>134347</v>
+        <v>134346</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,34 +2976,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>17</v>
+      </c>
+      <c r="D22" s="7">
+        <v>11445</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="7">
         <v>22</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>14646</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="7">
-        <v>17</v>
-      </c>
-      <c r="I22" s="7">
-        <v>11445</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -3003,13 +3012,13 @@
         <v>26091</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,25 +3027,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1006</v>
+      </c>
+      <c r="D23" s="7">
+        <v>672307</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7">
         <v>1076</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>715916</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1006</v>
-      </c>
-      <c r="I23" s="7">
-        <v>672307</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -3051,7 +3060,7 @@
         <v>2082</v>
       </c>
       <c r="N23" s="7">
-        <v>1388224</v>
+        <v>1388223</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>39</v>
@@ -3065,7 +3074,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +3094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064B74C3-05E2-4335-B505-024665753A33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793E5C4A-0517-411E-9662-CDE01DC54D16}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3102,7 +3111,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3203,34 +3212,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>204</v>
+      </c>
+      <c r="D4" s="7">
+        <v>136504</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="7">
         <v>189</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>133428</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="7">
-        <v>204</v>
-      </c>
-      <c r="I4" s="7">
-        <v>136504</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>393</v>
@@ -3239,13 +3248,13 @@
         <v>269932</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,34 +3263,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7497</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="7">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>8463</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7497</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -3290,13 +3299,13 @@
         <v>15960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,34 +3314,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2026</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2785</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2026</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -3341,13 +3350,13 @@
         <v>4811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,25 +3365,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>218</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146027</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7">
         <v>205</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>144676</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="7">
-        <v>218</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146027</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -3409,34 +3418,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>313</v>
+      </c>
+      <c r="D8" s="7">
+        <v>217871</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="7">
         <v>342</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>246045</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="7">
-        <v>313</v>
-      </c>
-      <c r="I8" s="7">
-        <v>217871</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>655</v>
@@ -3445,13 +3454,13 @@
         <v>463916</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,34 +3469,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7">
+        <v>13678</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="7">
         <v>27</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>19438</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="J9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" s="7">
-        <v>20</v>
-      </c>
-      <c r="I9" s="7">
-        <v>13678</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -3496,13 +3505,13 @@
         <v>33116</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,34 +3520,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4221</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3508</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4221</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3547,13 +3556,13 @@
         <v>7729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,25 +3571,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>339</v>
+      </c>
+      <c r="D11" s="7">
+        <v>235770</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7">
         <v>374</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>268991</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="7">
-        <v>339</v>
-      </c>
-      <c r="I11" s="7">
-        <v>235770</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -3615,34 +3624,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>205</v>
+      </c>
+      <c r="D12" s="7">
+        <v>144671</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="7">
         <v>209</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>145175</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H12" s="7">
-        <v>205</v>
-      </c>
-      <c r="I12" s="7">
-        <v>144671</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M12" s="7">
         <v>414</v>
@@ -3651,13 +3660,13 @@
         <v>289846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,34 +3675,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10119</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="7">
         <v>13</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>8645</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10119</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3702,13 +3711,13 @@
         <v>18765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,34 +3726,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2253</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>3749</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2253</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -3753,13 +3762,13 @@
         <v>6003</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,25 +3777,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>223</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="7">
         <v>227</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>157570</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="7">
-        <v>223</v>
-      </c>
-      <c r="I15" s="7">
-        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -3815,40 +3824,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>226</v>
+      </c>
+      <c r="D16" s="7">
+        <v>158898</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="7">
         <v>237</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>161009</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H16" s="7">
-        <v>226</v>
-      </c>
-      <c r="I16" s="7">
-        <v>158898</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>463</v>
@@ -3857,13 +3866,13 @@
         <v>319908</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,34 +3881,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6634</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17" s="7">
         <v>24</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>16297</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H17" s="7">
-        <v>9</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6634</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -3908,13 +3917,13 @@
         <v>22931</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,34 +3932,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3630</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>1962</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3630</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>248</v>
+        <v>63</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -3959,10 +3968,10 @@
         <v>5592</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>247</v>
@@ -3974,25 +3983,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>240</v>
+      </c>
+      <c r="D19" s="7">
+        <v>169162</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7">
         <v>264</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>179268</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7">
-        <v>240</v>
-      </c>
-      <c r="I19" s="7">
-        <v>169162</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -4027,34 +4036,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>948</v>
+      </c>
+      <c r="D20" s="7">
+        <v>657944</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H20" s="7">
         <v>977</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>685657</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H20" s="7">
-        <v>948</v>
-      </c>
-      <c r="I20" s="7">
-        <v>657944</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M20" s="7">
         <v>1925</v>
@@ -4063,13 +4072,13 @@
         <v>1343601</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,34 +4087,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>55</v>
+      </c>
+      <c r="D21" s="7">
+        <v>37928</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H21" s="7">
         <v>76</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>52844</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H21" s="7">
-        <v>55</v>
-      </c>
-      <c r="I21" s="7">
-        <v>37928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M21" s="7">
         <v>131</v>
@@ -4114,13 +4123,13 @@
         <v>90771</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,31 +4141,31 @@
         <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>12004</v>
+        <v>12130</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
       </c>
       <c r="I22" s="7">
-        <v>12130</v>
+        <v>12004</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -4165,13 +4174,13 @@
         <v>24134</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,25 +4189,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1020</v>
+      </c>
+      <c r="D23" s="7">
+        <v>708002</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7">
         <v>1070</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>750505</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1020</v>
-      </c>
-      <c r="I23" s="7">
-        <v>708002</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -4227,7 +4236,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4247,7 +4256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADC5D0-441C-4AC4-8F48-C598DA2FF4B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A82606-E92E-4370-8BFB-D59CBFD39022}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4264,7 +4273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4365,34 +4374,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>189</v>
+      </c>
+      <c r="D4" s="7">
+        <v>118268</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="7">
         <v>167</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>111425</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H4" s="7">
-        <v>189</v>
-      </c>
-      <c r="I4" s="7">
-        <v>118268</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>356</v>
@@ -4401,13 +4410,13 @@
         <v>229692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,34 +4425,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8486</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="7">
         <v>16</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>10135</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H5" s="7">
-        <v>14</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8486</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -4452,13 +4461,13 @@
         <v>18621</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,34 +4476,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4365</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2604</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4365</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>296</v>
+        <v>118</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>148</v>
+        <v>290</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -4503,13 +4512,13 @@
         <v>6969</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,25 +4527,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>210</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131119</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7">
         <v>187</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>124164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="7">
-        <v>210</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131119</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -4571,34 +4580,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>294</v>
+      </c>
+      <c r="D8" s="7">
+        <v>187026</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="7">
         <v>341</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>232542</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H8" s="7">
-        <v>294</v>
-      </c>
-      <c r="I8" s="7">
-        <v>187026</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>306</v>
+        <v>97</v>
       </c>
       <c r="M8" s="7">
         <v>635</v>
@@ -4607,13 +4616,13 @@
         <v>419568</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,34 +4631,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7">
+        <v>16342</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H9" s="7">
         <v>25</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>16622</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H9" s="7">
-        <v>26</v>
-      </c>
-      <c r="I9" s="7">
-        <v>16342</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M9" s="7">
         <v>51</v>
@@ -4658,13 +4667,13 @@
         <v>32964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,34 +4682,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5908</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H10" s="7">
         <v>14</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>8898</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5908</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4709,13 +4718,13 @@
         <v>14805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,25 +4733,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>330</v>
+      </c>
+      <c r="D11" s="7">
+        <v>209276</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>258061</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="7">
-        <v>330</v>
-      </c>
-      <c r="I11" s="7">
-        <v>209276</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -4777,34 +4786,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>247</v>
+      </c>
+      <c r="D12" s="7">
+        <v>172176</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H12" s="7">
         <v>231</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>165838</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H12" s="7">
-        <v>247</v>
-      </c>
-      <c r="I12" s="7">
-        <v>172176</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M12" s="7">
         <v>478</v>
@@ -4813,13 +4822,13 @@
         <v>338014</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,34 +4837,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9541</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H13" s="7">
         <v>19</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>13390</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9541</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -4864,13 +4873,13 @@
         <v>22931</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,34 +4888,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6014</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="7">
         <v>12</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>8581</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H14" s="7">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6014</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -4915,13 +4924,13 @@
         <v>14595</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,25 +4939,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>270</v>
+      </c>
+      <c r="D15" s="7">
+        <v>187731</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>187809</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="7">
-        <v>270</v>
-      </c>
-      <c r="I15" s="7">
-        <v>187731</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -4977,40 +4986,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>218</v>
+      </c>
+      <c r="D16" s="7">
+        <v>155491</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H16" s="7">
         <v>212</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>156490</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H16" s="7">
-        <v>218</v>
-      </c>
-      <c r="I16" s="7">
-        <v>155491</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>347</v>
       </c>
       <c r="M16" s="7">
         <v>430</v>
@@ -5019,13 +5028,13 @@
         <v>311981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,34 +5043,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7">
+        <v>11411</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H17" s="7">
         <v>16</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>12514</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H17" s="7">
-        <v>18</v>
-      </c>
-      <c r="I17" s="7">
-        <v>11411</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -5070,13 +5079,13 @@
         <v>23925</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,34 +5094,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4569</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2728</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4569</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>63</v>
+        <v>362</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5121,13 +5130,13 @@
         <v>7297</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,25 +5145,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>243</v>
+      </c>
+      <c r="D19" s="7">
+        <v>171471</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7">
         <v>232</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>171731</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7">
-        <v>243</v>
-      </c>
-      <c r="I19" s="7">
-        <v>171471</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -5189,34 +5198,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>948</v>
+      </c>
+      <c r="D20" s="7">
+        <v>632960</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H20" s="7">
         <v>951</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>666294</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="H20" s="7">
-        <v>948</v>
-      </c>
-      <c r="I20" s="7">
-        <v>632960</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M20" s="7">
         <v>1899</v>
@@ -5225,13 +5234,13 @@
         <v>1299254</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,34 +5249,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>72</v>
+      </c>
+      <c r="D21" s="7">
+        <v>45780</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" s="7">
         <v>76</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>52661</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H21" s="7">
-        <v>72</v>
-      </c>
-      <c r="I21" s="7">
-        <v>45780</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M21" s="7">
         <v>148</v>
@@ -5276,13 +5285,13 @@
         <v>98441</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,34 +5300,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>33</v>
+      </c>
+      <c r="D22" s="7">
+        <v>20856</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H22" s="7">
         <v>34</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>22810</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H22" s="7">
-        <v>33</v>
-      </c>
-      <c r="I22" s="7">
-        <v>20856</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -5327,13 +5336,13 @@
         <v>43666</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,25 +5351,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1053</v>
+      </c>
+      <c r="D23" s="7">
+        <v>699597</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7">
         <v>1061</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>741764</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1053</v>
-      </c>
-      <c r="I23" s="7">
-        <v>699597</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -5389,7 +5398,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5409,7 +5418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A527D4F-0CBA-47EE-96CE-7FDC16DEF13C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5B5BFE-9BBD-4C7F-BDB5-D99EB4012612}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5426,7 +5435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5527,49 +5536,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>103</v>
+      </c>
+      <c r="D4" s="7">
+        <v>54574</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H4" s="7">
         <v>108</v>
       </c>
-      <c r="D4" s="7">
-        <v>54119</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H4" s="7">
-        <v>103</v>
-      </c>
       <c r="I4" s="7">
-        <v>54436</v>
+        <v>56768</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M4" s="7">
         <v>211</v>
       </c>
       <c r="N4" s="7">
-        <v>108554</v>
+        <v>111342</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,46 +5590,46 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>3028</v>
+        <v>2096</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>2112</v>
+        <v>3274</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>290</v>
+        <v>401</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>5140</v>
+        <v>5370</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,49 +5638,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>841</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
-        <v>1356</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
       <c r="I6" s="7">
-        <v>821</v>
+        <v>1401</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>222</v>
+        <v>407</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>408</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>409</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>2177</v>
+        <v>2243</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>147</v>
+        <v>410</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,25 +5689,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -5713,7 +5722,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -5733,49 +5742,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>244</v>
+      </c>
+      <c r="D8" s="7">
+        <v>150691</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H8" s="7">
         <v>262</v>
       </c>
-      <c r="D8" s="7">
-        <v>165179</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>171901</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="H8" s="7">
-        <v>244</v>
-      </c>
-      <c r="I8" s="7">
-        <v>150295</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M8" s="7">
         <v>506</v>
       </c>
       <c r="N8" s="7">
-        <v>315475</v>
+        <v>322593</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>420</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,49 +5793,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3983</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H9" s="7">
         <v>11</v>
       </c>
-      <c r="D9" s="7">
-        <v>7367</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="I9" s="7">
+        <v>7630</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H9" s="7">
-        <v>8</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4088</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
       </c>
       <c r="N9" s="7">
-        <v>11454</v>
+        <v>11613</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>317</v>
+        <v>426</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>120</v>
+        <v>427</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>319</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,49 +5844,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2778</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
-        <v>1849</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>1946</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2786</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>4635</v>
+        <v>4724</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>407</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>432</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,25 +5895,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>256</v>
+      </c>
+      <c r="D11" s="7">
+        <v>157452</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7">
         <v>275</v>
       </c>
-      <c r="D11" s="7">
-        <v>174394</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="7">
-        <v>256</v>
-      </c>
       <c r="I11" s="7">
-        <v>157169</v>
+        <v>181477</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -5919,7 +5928,7 @@
         <v>531</v>
       </c>
       <c r="N11" s="7">
-        <v>331564</v>
+        <v>338930</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -5939,49 +5948,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>222</v>
+      </c>
+      <c r="D12" s="7">
+        <v>165831</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H12" s="7">
         <v>233</v>
       </c>
-      <c r="D12" s="7">
-        <v>194461</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="H12" s="7">
-        <v>222</v>
-      </c>
       <c r="I12" s="7">
-        <v>168818</v>
+        <v>204104</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="M12" s="7">
         <v>455</v>
       </c>
       <c r="N12" s="7">
-        <v>363279</v>
+        <v>369933</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,49 +5999,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6648</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
-        <v>5842</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
       <c r="I13" s="7">
-        <v>6724</v>
+        <v>6126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>441</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>12567</v>
+        <v>12774</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>448</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,46 +6053,46 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1274</v>
+        <v>1409</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>450</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1403</v>
+        <v>1317</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>452</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>2677</v>
+        <v>2726</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,25 +6101,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="7">
         <v>242</v>
       </c>
-      <c r="D15" s="7">
-        <v>201577</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="7">
-        <v>234</v>
-      </c>
       <c r="I15" s="7">
-        <v>176945</v>
+        <v>211547</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -6125,7 +6134,7 @@
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>378522</v>
+        <v>385434</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -6139,7 +6148,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6148,46 +6157,46 @@
         <v>326</v>
       </c>
       <c r="D16" s="7">
-        <v>276050</v>
+        <v>264470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="H16" s="7">
         <v>326</v>
       </c>
       <c r="I16" s="7">
-        <v>249386</v>
+        <v>291543</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M16" s="7">
         <v>652</v>
       </c>
       <c r="N16" s="7">
-        <v>525436</v>
+        <v>556014</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>463</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,49 +6205,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6451</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H17" s="7">
         <v>9</v>
       </c>
-      <c r="D17" s="7">
-        <v>8108</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H17" s="7">
-        <v>10</v>
-      </c>
       <c r="I17" s="7">
-        <v>6648</v>
+        <v>8445</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>14757</v>
+        <v>14896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>461</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,49 +6256,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3377</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H18" s="7">
         <v>6</v>
       </c>
-      <c r="D18" s="7">
-        <v>4740</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
       <c r="I18" s="7">
-        <v>3389</v>
+        <v>4969</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>472</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>8128</v>
+        <v>8346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>339</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,25 +6307,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>340</v>
+      </c>
+      <c r="D19" s="7">
+        <v>274298</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7">
         <v>341</v>
       </c>
-      <c r="D19" s="7">
-        <v>288898</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7">
-        <v>340</v>
-      </c>
       <c r="I19" s="7">
-        <v>259423</v>
+        <v>304958</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -6331,7 +6340,7 @@
         <v>681</v>
       </c>
       <c r="N19" s="7">
-        <v>548321</v>
+        <v>579256</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -6351,49 +6360,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>895</v>
+      </c>
+      <c r="D20" s="7">
+        <v>635566</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H20" s="7">
         <v>929</v>
       </c>
-      <c r="D20" s="7">
-        <v>689807</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="H20" s="7">
-        <v>895</v>
-      </c>
       <c r="I20" s="7">
-        <v>622936</v>
+        <v>724318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="M20" s="7">
         <v>1824</v>
       </c>
       <c r="N20" s="7">
-        <v>1312743</v>
+        <v>1359883</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,49 +6411,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7">
+        <v>19177</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H21" s="7">
         <v>32</v>
       </c>
-      <c r="D21" s="7">
-        <v>24345</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H21" s="7">
-        <v>33</v>
-      </c>
       <c r="I21" s="7">
-        <v>19573</v>
+        <v>25476</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>481</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>365</v>
+        <v>487</v>
       </c>
       <c r="M21" s="7">
         <v>65</v>
       </c>
       <c r="N21" s="7">
-        <v>43918</v>
+        <v>44653</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>346</v>
+        <v>161</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,49 +6462,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8406</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H22" s="7">
         <v>13</v>
       </c>
-      <c r="D22" s="7">
-        <v>9218</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="H22" s="7">
-        <v>11</v>
-      </c>
       <c r="I22" s="7">
-        <v>8398</v>
+        <v>9633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
       </c>
       <c r="N22" s="7">
-        <v>17617</v>
+        <v>18039</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,25 +6513,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>939</v>
+      </c>
+      <c r="D23" s="7">
+        <v>663149</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7">
         <v>974</v>
       </c>
-      <c r="D23" s="7">
-        <v>723371</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="7">
-        <v>939</v>
-      </c>
       <c r="I23" s="7">
-        <v>650907</v>
+        <v>759427</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -6537,7 +6546,7 @@
         <v>1913</v>
       </c>
       <c r="N23" s="7">
-        <v>1374278</v>
+        <v>1422575</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>39</v>
@@ -6551,7 +6560,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
